--- a/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_TREC.xlsx
+++ b/3_WordEmbedding_Models/Word2Vec/1_CNN/CNN_TREC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diardano Raihan\Documents\My Life\AI\Portofolio\Text_Classification_Capstone\3_WordEmbedding_Models\Word2Vec\1_CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE31E838-14FA-46E6-B11D-F9D8238497F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435EC592-64E5-44A8-9A43-FACCEBE060C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
   <si>
     <t>Activation</t>
   </si>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +55,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +110,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -409,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,134 +612,118 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>92.199999094009399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>92.000001668930054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>91.79999828338623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>91.200000047683716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>91.00000262260437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>85.799998044967651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>83.600002527236938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>79.799997806549072</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>78.600001335144043</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>77.600002288818359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>76.399999856948853</v>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>88.599997758865356</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>74.000000953674316</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>54.799997806549072</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -742,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45637AD-6228-4163-B48E-76E5CE3F19C5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,114 +754,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4">
-        <v>87.000000476837158</v>
+        <v>91.600000858306885</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>86.599999666213989</v>
+        <v>90.600001811981201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>84.600001573562622</v>
+        <v>90.200001001358032</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
-        <v>84.399998188018799</v>
+        <v>89.999997615814209</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>83.799999952316284</v>
+        <v>89.800000190734863</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4">
-        <v>83.20000171661377</v>
+        <v>89.800000190734863</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>81.599998474121094</v>
+        <v>89.200001955032349</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>81.000000238418579</v>
+        <v>87.999999523162842</v>
       </c>
     </row>
   </sheetData>
